--- a/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Upd002_トークテーマ評価.xlsx
+++ b/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Upd002_トークテーマ評価.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2669350-CB06-4820-B647-3A36376C5DD0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C24D6B-AFA0-4AB0-BA92-DEB9235355F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="465" windowWidth="38400" windowHeight="21135" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -44,6 +44,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -52,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="72">
   <si>
     <t>Confidential</t>
     <phoneticPr fontId="6"/>
@@ -444,39 +449,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>isSuccess</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>成功フラグ</t>
-    <rPh sb="0" eb="2">
-      <t>セイコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Boolean</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>トークテーマの評価が成功したか
-True:成功(HTTPステータス:200)
-False:失敗(HTTPステータス:400)</t>
-    <rPh sb="7" eb="9">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>セイコウシタカ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>シッパイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>goodCount</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -523,6 +495,28 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>柴</t>
+    <rPh sb="0" eb="1">
+      <t>シバ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.0.0</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>レスポンス
+・成功フラグの削除</t>
+    <rPh sb="7" eb="9">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -888,6 +882,60 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -918,83 +966,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3517,7 +3511,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> </a:t>
+              <a:t>2019年5月19日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -3589,7 +3583,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> </a:t>
+              <a:t>柴</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -3936,30 +3930,30 @@
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="52"/>
     </row>
     <row r="21" spans="2:51" ht="3" customHeight="1">
       <c r="B21" s="4"/>
@@ -4019,33 +4013,33 @@
       </c>
     </row>
     <row r="27" spans="2:51">
-      <c r="AO27" s="31">
+      <c r="AO27" s="49">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(改訂日),COLUMN(改訂日),4,1),1)&amp;COUNTA(改訂日)+4)</f>
-        <v>43468</v>
-      </c>
-      <c r="AP27" s="32"/>
-      <c r="AQ27" s="32"/>
-      <c r="AR27" s="32"/>
-      <c r="AS27" s="32"/>
-      <c r="AT27" s="32"/>
-      <c r="AU27" s="32"/>
-      <c r="AV27" s="32"/>
-      <c r="AW27" s="32"/>
-      <c r="AX27" s="32"/>
-      <c r="AY27" s="32"/>
+        <v>43604</v>
+      </c>
+      <c r="AP27" s="50"/>
+      <c r="AQ27" s="50"/>
+      <c r="AR27" s="50"/>
+      <c r="AS27" s="50"/>
+      <c r="AT27" s="50"/>
+      <c r="AU27" s="50"/>
+      <c r="AV27" s="50"/>
+      <c r="AW27" s="50"/>
+      <c r="AX27" s="50"/>
+      <c r="AY27" s="50"/>
     </row>
     <row r="28" spans="2:51">
-      <c r="AR28" s="33" t="str">
+      <c r="AR28" s="51" t="str">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(版),COLUMN(版),4,1),1)&amp;COUNTA(版)+4)</f>
-        <v>0.0.1</v>
-      </c>
-      <c r="AS28" s="33"/>
-      <c r="AT28" s="33"/>
-      <c r="AU28" s="33"/>
-      <c r="AV28" s="33"/>
-      <c r="AW28" s="33"/>
-      <c r="AX28" s="33"/>
-      <c r="AY28" s="33"/>
+        <v>1.0.0</v>
+      </c>
+      <c r="AS28" s="51"/>
+      <c r="AT28" s="51"/>
+      <c r="AU28" s="51"/>
+      <c r="AV28" s="51"/>
+      <c r="AW28" s="51"/>
+      <c r="AX28" s="51"/>
+      <c r="AY28" s="51"/>
     </row>
     <row r="31" spans="2:51">
       <c r="AR31" s="6"/>
@@ -4059,7 +4053,7 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="75" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="76" fitToWidth="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4131,11 +4125,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
+    <row r="6" spans="2:5" ht="37.5">
+      <c r="B6" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="28">
+        <v>43604</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="26"/>
@@ -4254,7 +4256,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4377,13 +4379,13 @@
       <c r="AH11" s="19"/>
     </row>
     <row r="12" spans="2:81" ht="19.5">
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="55"/>
       <c r="H12" s="25" t="s">
         <v>51</v>
       </c>
@@ -4515,7 +4517,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -4534,418 +4536,413 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="0.875" style="42" customWidth="1"/>
-    <col min="2" max="74" width="3.125" style="42" customWidth="1"/>
-    <col min="75" max="75" width="3.125" style="42"/>
-    <col min="76" max="82" width="8.625" style="42" customWidth="1"/>
-    <col min="83" max="16384" width="3.125" style="42"/>
+    <col min="1" max="1" width="0.875" style="31" customWidth="1"/>
+    <col min="2" max="74" width="3.125" style="31" customWidth="1"/>
+    <col min="75" max="75" width="3.125" style="31"/>
+    <col min="76" max="82" width="8.625" style="31" customWidth="1"/>
+    <col min="83" max="16384" width="3.125" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:81" ht="6.75" customHeight="1"/>
     <row r="2" spans="2:81">
-      <c r="BX2" s="43" t="s">
+      <c r="BX2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="BY2" s="43" t="s">
+      <c r="BY2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="BZ2" s="43" t="s">
+      <c r="BZ2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CA2" s="43" t="s">
+      <c r="CA2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="CB2" s="43" t="s">
+      <c r="CB2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="CC2" s="43" t="s">
+      <c r="CC2" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:81">
-      <c r="BX3" s="43" t="s">
+      <c r="BX3" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="BY3" s="42" t="str">
+      <c r="BY3" s="31" t="str">
         <f ca="1">REPLACE(LEFT(CELL("filename",$A$1),FIND(".x",CELL("filename",$A$1))-1),1,FIND("[",CELL("filename",$A$1)),)</f>
         <v>【eternal】API仕様書_Upd002_トークテーマ評価</v>
       </c>
-      <c r="BZ3" s="44">
+      <c r="BZ3" s="33">
         <v>43434</v>
       </c>
-      <c r="CA3" s="43" t="s">
+      <c r="CA3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="CB3" s="44"/>
-      <c r="CC3" s="43"/>
+      <c r="CB3" s="33"/>
+      <c r="CC3" s="32"/>
     </row>
     <row r="4" spans="2:81" ht="18" customHeight="1"/>
     <row r="6" spans="2:81">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="31" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:81">
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="BX7" s="42" t="s">
+      <c r="BX7" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="CA7" s="42" t="s">
+      <c r="CA7" s="31" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:81">
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="45" t="s">
+      <c r="D8" s="35"/>
+      <c r="E8" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="45" t="s">
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="45" t="s">
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="45" t="s">
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="46"/>
-      <c r="AG8" s="45" t="s">
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="AH8" s="46"/>
-      <c r="AI8" s="45" t="s">
+      <c r="AH8" s="35"/>
+      <c r="AI8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="AJ8" s="47"/>
-      <c r="AK8" s="47"/>
-      <c r="AL8" s="47"/>
-      <c r="AM8" s="47"/>
-      <c r="AN8" s="47"/>
-      <c r="AO8" s="47"/>
-      <c r="AP8" s="47"/>
-      <c r="AQ8" s="47"/>
-      <c r="AR8" s="47"/>
-      <c r="AS8" s="47"/>
-      <c r="AT8" s="47"/>
-      <c r="AU8" s="47"/>
-      <c r="AV8" s="47"/>
-      <c r="AW8" s="47"/>
-      <c r="AX8" s="46"/>
-      <c r="BX8" s="42" t="s">
+      <c r="AJ8" s="36"/>
+      <c r="AK8" s="36"/>
+      <c r="AL8" s="36"/>
+      <c r="AM8" s="36"/>
+      <c r="AN8" s="36"/>
+      <c r="AO8" s="36"/>
+      <c r="AP8" s="36"/>
+      <c r="AQ8" s="36"/>
+      <c r="AR8" s="36"/>
+      <c r="AS8" s="36"/>
+      <c r="AT8" s="36"/>
+      <c r="AU8" s="36"/>
+      <c r="AV8" s="36"/>
+      <c r="AW8" s="36"/>
+      <c r="AX8" s="35"/>
+      <c r="BX8" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="CA8" s="42" t="s">
+      <c r="CA8" s="31" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:81">
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="38"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="38"/>
-      <c r="AB9" s="38"/>
-      <c r="AC9" s="38"/>
-      <c r="AD9" s="38"/>
-      <c r="AE9" s="38"/>
-      <c r="AF9" s="38"/>
-      <c r="AG9" s="39"/>
-      <c r="AH9" s="39"/>
-      <c r="AI9" s="40"/>
-      <c r="AJ9" s="40"/>
-      <c r="AK9" s="40"/>
-      <c r="AL9" s="40"/>
-      <c r="AM9" s="40"/>
-      <c r="AN9" s="40"/>
-      <c r="AO9" s="40"/>
-      <c r="AP9" s="40"/>
-      <c r="AQ9" s="40"/>
-      <c r="AR9" s="40"/>
-      <c r="AS9" s="40"/>
-      <c r="AT9" s="40"/>
-      <c r="AU9" s="40"/>
-      <c r="AV9" s="40"/>
-      <c r="AW9" s="40"/>
-      <c r="AX9" s="40"/>
-      <c r="BX9" s="42" t="s">
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="56"/>
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="57"/>
+      <c r="AH9" s="57"/>
+      <c r="AI9" s="58"/>
+      <c r="AJ9" s="58"/>
+      <c r="AK9" s="58"/>
+      <c r="AL9" s="58"/>
+      <c r="AM9" s="58"/>
+      <c r="AN9" s="58"/>
+      <c r="AO9" s="58"/>
+      <c r="AP9" s="58"/>
+      <c r="AQ9" s="58"/>
+      <c r="AR9" s="58"/>
+      <c r="AS9" s="58"/>
+      <c r="AT9" s="58"/>
+      <c r="AU9" s="58"/>
+      <c r="AV9" s="58"/>
+      <c r="AW9" s="58"/>
+      <c r="AX9" s="58"/>
+      <c r="BX9" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="CA9" s="42" t="s">
+      <c r="CA9" s="31" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:81" ht="18.95" customHeight="1">
-      <c r="BX10" s="42" t="s">
+      <c r="BX10" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="CA10" s="42" t="s">
+      <c r="CA10" s="31" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:81">
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="BX11" s="42" t="s">
+      <c r="BX11" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="CA11" s="42" t="s">
+      <c r="CA11" s="31" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:81">
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="45" t="s">
+      <c r="D12" s="35"/>
+      <c r="E12" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="45" t="s">
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="45" t="s">
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="45" t="s">
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="AA12" s="47"/>
-      <c r="AB12" s="47"/>
-      <c r="AC12" s="47"/>
-      <c r="AD12" s="47"/>
-      <c r="AE12" s="47"/>
-      <c r="AF12" s="46"/>
-      <c r="AG12" s="45" t="s">
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36"/>
+      <c r="AC12" s="36"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="36"/>
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="AH12" s="46"/>
-      <c r="AI12" s="45" t="s">
+      <c r="AH12" s="35"/>
+      <c r="AI12" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="AJ12" s="47"/>
-      <c r="AK12" s="47"/>
-      <c r="AL12" s="47"/>
-      <c r="AM12" s="47"/>
-      <c r="AN12" s="47"/>
-      <c r="AO12" s="47"/>
-      <c r="AP12" s="47"/>
-      <c r="AQ12" s="47"/>
-      <c r="AR12" s="47"/>
-      <c r="AS12" s="47"/>
-      <c r="AT12" s="47"/>
-      <c r="AU12" s="47"/>
-      <c r="AV12" s="47"/>
-      <c r="AW12" s="47"/>
-      <c r="AX12" s="46"/>
-      <c r="CA12" s="42" t="s">
+      <c r="AJ12" s="36"/>
+      <c r="AK12" s="36"/>
+      <c r="AL12" s="36"/>
+      <c r="AM12" s="36"/>
+      <c r="AN12" s="36"/>
+      <c r="AO12" s="36"/>
+      <c r="AP12" s="36"/>
+      <c r="AQ12" s="36"/>
+      <c r="AR12" s="36"/>
+      <c r="AS12" s="36"/>
+      <c r="AT12" s="36"/>
+      <c r="AU12" s="36"/>
+      <c r="AV12" s="36"/>
+      <c r="AW12" s="36"/>
+      <c r="AX12" s="35"/>
+      <c r="CA12" s="31" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="2:81">
-      <c r="C13" s="38">
+      <c r="C13" s="56">
         <v>1</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38" t="s">
+      <c r="D13" s="56"/>
+      <c r="E13" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38" t="s">
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38" t="s">
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38" t="s">
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="38"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="38"/>
-      <c r="AE13" s="38"/>
-      <c r="AF13" s="38"/>
-      <c r="AG13" s="39" t="s">
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="56"/>
+      <c r="AC13" s="56"/>
+      <c r="AD13" s="56"/>
+      <c r="AE13" s="56"/>
+      <c r="AF13" s="56"/>
+      <c r="AG13" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="AH13" s="39"/>
-      <c r="AI13" s="40"/>
-      <c r="AJ13" s="40"/>
-      <c r="AK13" s="40"/>
-      <c r="AL13" s="40"/>
-      <c r="AM13" s="40"/>
-      <c r="AN13" s="40"/>
-      <c r="AO13" s="40"/>
-      <c r="AP13" s="40"/>
-      <c r="AQ13" s="40"/>
-      <c r="AR13" s="40"/>
-      <c r="AS13" s="40"/>
-      <c r="AT13" s="40"/>
-      <c r="AU13" s="40"/>
-      <c r="AV13" s="40"/>
-      <c r="AW13" s="40"/>
-      <c r="AX13" s="40"/>
-      <c r="CA13" s="42" t="s">
+      <c r="AH13" s="57"/>
+      <c r="AI13" s="58"/>
+      <c r="AJ13" s="58"/>
+      <c r="AK13" s="58"/>
+      <c r="AL13" s="58"/>
+      <c r="AM13" s="58"/>
+      <c r="AN13" s="58"/>
+      <c r="AO13" s="58"/>
+      <c r="AP13" s="58"/>
+      <c r="AQ13" s="58"/>
+      <c r="AR13" s="58"/>
+      <c r="AS13" s="58"/>
+      <c r="AT13" s="58"/>
+      <c r="AU13" s="58"/>
+      <c r="AV13" s="58"/>
+      <c r="AW13" s="58"/>
+      <c r="AX13" s="58"/>
+      <c r="CA13" s="31" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:81" ht="37.5" customHeight="1">
-      <c r="C14" s="38">
+      <c r="C14" s="56">
         <v>2</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38" t="s">
+      <c r="D14" s="56"/>
+      <c r="E14" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38" t="s">
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38" t="s">
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38" t="s">
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="38"/>
-      <c r="AF14" s="38"/>
-      <c r="AG14" s="39" t="s">
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="56"/>
+      <c r="AF14" s="56"/>
+      <c r="AG14" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="AH14" s="39"/>
-      <c r="AI14" s="40" t="s">
+      <c r="AH14" s="57"/>
+      <c r="AI14" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="AJ14" s="40"/>
-      <c r="AK14" s="40"/>
-      <c r="AL14" s="40"/>
-      <c r="AM14" s="40"/>
-      <c r="AN14" s="40"/>
-      <c r="AO14" s="40"/>
-      <c r="AP14" s="40"/>
-      <c r="AQ14" s="40"/>
-      <c r="AR14" s="40"/>
-      <c r="AS14" s="40"/>
-      <c r="AT14" s="40"/>
-      <c r="AU14" s="40"/>
-      <c r="AV14" s="40"/>
-      <c r="AW14" s="40"/>
-      <c r="AX14" s="40"/>
+      <c r="AJ14" s="58"/>
+      <c r="AK14" s="58"/>
+      <c r="AL14" s="58"/>
+      <c r="AM14" s="58"/>
+      <c r="AN14" s="58"/>
+      <c r="AO14" s="58"/>
+      <c r="AP14" s="58"/>
+      <c r="AQ14" s="58"/>
+      <c r="AR14" s="58"/>
+      <c r="AS14" s="58"/>
+      <c r="AT14" s="58"/>
+      <c r="AU14" s="58"/>
+      <c r="AV14" s="58"/>
+      <c r="AW14" s="58"/>
+      <c r="AX14" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:K14"/>
-    <mergeCell ref="L14:R14"/>
-    <mergeCell ref="S14:Y14"/>
-    <mergeCell ref="Z14:AF14"/>
     <mergeCell ref="AG14:AH14"/>
     <mergeCell ref="AI14:AX14"/>
     <mergeCell ref="C9:D9"/>
@@ -4962,6 +4959,11 @@
     <mergeCell ref="L13:R13"/>
     <mergeCell ref="S13:Y13"/>
     <mergeCell ref="Z13:AF13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:K14"/>
+    <mergeCell ref="L14:R14"/>
+    <mergeCell ref="S14:Y14"/>
+    <mergeCell ref="Z14:AF14"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -4970,7 +4972,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -4989,448 +4991,384 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="0.875" style="52" customWidth="1"/>
-    <col min="2" max="74" width="3.125" style="52" customWidth="1"/>
-    <col min="75" max="75" width="3.125" style="52"/>
-    <col min="76" max="82" width="8.625" style="52" customWidth="1"/>
-    <col min="83" max="16384" width="3.125" style="52"/>
+    <col min="1" max="1" width="0.875" style="39" customWidth="1"/>
+    <col min="2" max="74" width="3.125" style="39" customWidth="1"/>
+    <col min="75" max="75" width="3.125" style="39"/>
+    <col min="76" max="82" width="8.625" style="39" customWidth="1"/>
+    <col min="83" max="16384" width="3.125" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:81" ht="6.75" customHeight="1"/>
     <row r="2" spans="2:81">
-      <c r="BX2" s="53" t="s">
+      <c r="BX2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="BY2" s="53" t="s">
+      <c r="BY2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="BZ2" s="53" t="s">
+      <c r="BZ2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="CA2" s="53" t="s">
+      <c r="CA2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="CB2" s="53" t="s">
+      <c r="CB2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="CC2" s="53" t="s">
+      <c r="CC2" s="40" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:81">
-      <c r="BX3" s="53" t="s">
+      <c r="BX3" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="BY3" s="52" t="str">
+      <c r="BY3" s="39" t="str">
         <f ca="1">REPLACE(LEFT(CELL("filename",$A$1),FIND(".x",CELL("filename",$A$1))-1),1,FIND("[",CELL("filename",$A$1)),)</f>
         <v>【eternal】API仕様書_Upd002_トークテーマ評価</v>
       </c>
-      <c r="BZ3" s="54">
+      <c r="BZ3" s="41">
         <v>43468</v>
       </c>
-      <c r="CA3" s="53" t="s">
+      <c r="CA3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="CB3" s="54"/>
-      <c r="CC3" s="53"/>
+      <c r="CB3" s="41">
+        <v>43604</v>
+      </c>
+      <c r="CC3" s="40" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="4" spans="2:81" ht="18" customHeight="1"/>
     <row r="6" spans="2:81">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="39" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:81">
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="BX7" s="52" t="s">
+      <c r="BX7" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="CA7" s="52" t="s">
+      <c r="CA7" s="39" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:81">
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="57" t="s">
+      <c r="D8" s="43"/>
+      <c r="E8" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="59" t="s">
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="59" t="s">
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="59" t="s">
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="AA8" s="57"/>
-      <c r="AB8" s="57"/>
-      <c r="AC8" s="57"/>
-      <c r="AD8" s="57"/>
-      <c r="AE8" s="57"/>
-      <c r="AF8" s="58"/>
-      <c r="AG8" s="59" t="s">
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="44"/>
+      <c r="AE8" s="44"/>
+      <c r="AF8" s="45"/>
+      <c r="AG8" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AH8" s="58"/>
-      <c r="AI8" s="59" t="s">
+      <c r="AH8" s="45"/>
+      <c r="AI8" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="AJ8" s="57"/>
-      <c r="AK8" s="57"/>
-      <c r="AL8" s="57"/>
-      <c r="AM8" s="57"/>
-      <c r="AN8" s="57"/>
-      <c r="AO8" s="57"/>
-      <c r="AP8" s="57"/>
-      <c r="AQ8" s="57"/>
-      <c r="AR8" s="57"/>
-      <c r="AS8" s="57"/>
-      <c r="AT8" s="57"/>
-      <c r="AU8" s="57"/>
-      <c r="AV8" s="57"/>
-      <c r="AW8" s="57"/>
-      <c r="AX8" s="58"/>
-      <c r="BX8" s="52" t="s">
+      <c r="AJ8" s="44"/>
+      <c r="AK8" s="44"/>
+      <c r="AL8" s="44"/>
+      <c r="AM8" s="44"/>
+      <c r="AN8" s="44"/>
+      <c r="AO8" s="44"/>
+      <c r="AP8" s="44"/>
+      <c r="AQ8" s="44"/>
+      <c r="AR8" s="44"/>
+      <c r="AS8" s="44"/>
+      <c r="AT8" s="44"/>
+      <c r="AU8" s="44"/>
+      <c r="AV8" s="44"/>
+      <c r="AW8" s="44"/>
+      <c r="AX8" s="45"/>
+      <c r="BX8" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="CA8" s="52" t="s">
+      <c r="CA8" s="39" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:81" ht="55.5" customHeight="1">
-      <c r="C9" s="60">
+      <c r="C9" s="47">
         <v>1</v>
       </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="48" t="s">
+      <c r="D9" s="48"/>
+      <c r="E9" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA9" s="66"/>
+      <c r="AB9" s="66"/>
+      <c r="AC9" s="66"/>
+      <c r="AD9" s="66"/>
+      <c r="AE9" s="66"/>
+      <c r="AF9" s="66"/>
+      <c r="AG9" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH9" s="59"/>
+      <c r="AI9" s="60"/>
+      <c r="AJ9" s="61"/>
+      <c r="AK9" s="61"/>
+      <c r="AL9" s="61"/>
+      <c r="AM9" s="61"/>
+      <c r="AN9" s="61"/>
+      <c r="AO9" s="61"/>
+      <c r="AP9" s="61"/>
+      <c r="AQ9" s="61"/>
+      <c r="AR9" s="61"/>
+      <c r="AS9" s="61"/>
+      <c r="AT9" s="61"/>
+      <c r="AU9" s="61"/>
+      <c r="AV9" s="61"/>
+      <c r="AW9" s="61"/>
+      <c r="AX9" s="62"/>
+      <c r="BX9" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="CA9" s="39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:81">
+      <c r="C10" s="47">
+        <v>2</v>
+      </c>
+      <c r="D10" s="48"/>
+      <c r="E10" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="48" t="s">
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="65"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="65"/>
+      <c r="AD10" s="65"/>
+      <c r="AE10" s="65"/>
+      <c r="AF10" s="65"/>
+      <c r="AG10" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH10" s="59"/>
+      <c r="AI10" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ10" s="61"/>
+      <c r="AK10" s="61"/>
+      <c r="AL10" s="61"/>
+      <c r="AM10" s="61"/>
+      <c r="AN10" s="61"/>
+      <c r="AO10" s="61"/>
+      <c r="AP10" s="61"/>
+      <c r="AQ10" s="61"/>
+      <c r="AR10" s="61"/>
+      <c r="AS10" s="61"/>
+      <c r="AT10" s="61"/>
+      <c r="AU10" s="61"/>
+      <c r="AV10" s="61"/>
+      <c r="AW10" s="61"/>
+      <c r="AX10" s="62"/>
+      <c r="BX10" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="CA10" s="39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:81">
+      <c r="C11" s="47">
+        <v>3</v>
+      </c>
+      <c r="D11" s="48"/>
+      <c r="E11" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA9" s="62"/>
-      <c r="AB9" s="62"/>
-      <c r="AC9" s="62"/>
-      <c r="AD9" s="62"/>
-      <c r="AE9" s="62"/>
-      <c r="AF9" s="62"/>
-      <c r="AG9" s="63" t="s">
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="65"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA11" s="65"/>
+      <c r="AB11" s="65"/>
+      <c r="AC11" s="65"/>
+      <c r="AD11" s="65"/>
+      <c r="AE11" s="65"/>
+      <c r="AF11" s="65"/>
+      <c r="AG11" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="AH9" s="63"/>
-      <c r="AI9" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ9" s="40"/>
-      <c r="AK9" s="40"/>
-      <c r="AL9" s="40"/>
-      <c r="AM9" s="40"/>
-      <c r="AN9" s="40"/>
-      <c r="AO9" s="40"/>
-      <c r="AP9" s="40"/>
-      <c r="AQ9" s="40"/>
-      <c r="AR9" s="40"/>
-      <c r="AS9" s="40"/>
-      <c r="AT9" s="40"/>
-      <c r="AU9" s="40"/>
-      <c r="AV9" s="40"/>
-      <c r="AW9" s="40"/>
-      <c r="AX9" s="40"/>
-      <c r="BX9" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="CA9" s="52" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="2:81">
-      <c r="C10" s="60">
-        <v>2</v>
-      </c>
-      <c r="D10" s="61"/>
-      <c r="E10" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62" t="s">
+      <c r="AH11" s="59"/>
+      <c r="AI11" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="AA10" s="62"/>
-      <c r="AB10" s="62"/>
-      <c r="AC10" s="62"/>
-      <c r="AD10" s="62"/>
-      <c r="AE10" s="62"/>
-      <c r="AF10" s="62"/>
-      <c r="AG10" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH10" s="63"/>
-      <c r="AI10" s="64"/>
-      <c r="AJ10" s="65"/>
-      <c r="AK10" s="65"/>
-      <c r="AL10" s="65"/>
-      <c r="AM10" s="65"/>
-      <c r="AN10" s="65"/>
-      <c r="AO10" s="65"/>
-      <c r="AP10" s="65"/>
-      <c r="AQ10" s="65"/>
-      <c r="AR10" s="65"/>
-      <c r="AS10" s="65"/>
-      <c r="AT10" s="65"/>
-      <c r="AU10" s="65"/>
-      <c r="AV10" s="65"/>
-      <c r="AW10" s="65"/>
-      <c r="AX10" s="66"/>
-      <c r="BX10" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="CA10" s="52" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="2:81">
-      <c r="C11" s="60">
-        <v>3</v>
-      </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="41"/>
-      <c r="AC11" s="41"/>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="41"/>
-      <c r="AF11" s="41"/>
-      <c r="AG11" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH11" s="63"/>
-      <c r="AI11" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ11" s="65"/>
-      <c r="AK11" s="65"/>
-      <c r="AL11" s="65"/>
-      <c r="AM11" s="65"/>
-      <c r="AN11" s="65"/>
-      <c r="AO11" s="65"/>
-      <c r="AP11" s="65"/>
-      <c r="AQ11" s="65"/>
-      <c r="AR11" s="65"/>
-      <c r="AS11" s="65"/>
-      <c r="AT11" s="65"/>
-      <c r="AU11" s="65"/>
-      <c r="AV11" s="65"/>
-      <c r="AW11" s="65"/>
-      <c r="AX11" s="66"/>
-      <c r="BX11" s="52" t="s">
+      <c r="AJ11" s="61"/>
+      <c r="AK11" s="61"/>
+      <c r="AL11" s="61"/>
+      <c r="AM11" s="61"/>
+      <c r="AN11" s="61"/>
+      <c r="AO11" s="61"/>
+      <c r="AP11" s="61"/>
+      <c r="AQ11" s="61"/>
+      <c r="AR11" s="61"/>
+      <c r="AS11" s="61"/>
+      <c r="AT11" s="61"/>
+      <c r="AU11" s="61"/>
+      <c r="AV11" s="61"/>
+      <c r="AW11" s="61"/>
+      <c r="AX11" s="62"/>
+      <c r="BX11" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="CA11" s="52" t="s">
+      <c r="CA11" s="39" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:81">
-      <c r="C12" s="60">
-        <v>4</v>
-      </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="41"/>
-      <c r="AC12" s="41"/>
-      <c r="AD12" s="41"/>
-      <c r="AE12" s="41"/>
-      <c r="AF12" s="41"/>
-      <c r="AG12" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH12" s="63"/>
-      <c r="AI12" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ12" s="65"/>
-      <c r="AK12" s="65"/>
-      <c r="AL12" s="65"/>
-      <c r="AM12" s="65"/>
-      <c r="AN12" s="65"/>
-      <c r="AO12" s="65"/>
-      <c r="AP12" s="65"/>
-      <c r="AQ12" s="65"/>
-      <c r="AR12" s="65"/>
-      <c r="AS12" s="65"/>
-      <c r="AT12" s="65"/>
-      <c r="AU12" s="65"/>
-      <c r="AV12" s="65"/>
-      <c r="AW12" s="65"/>
-      <c r="AX12" s="66"/>
-      <c r="CA12" s="52" t="s">
+      <c r="CA12" s="39" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="42" ht="18.95" customHeight="1"/>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AX12"/>
-    <mergeCell ref="E10:K10"/>
+  <mergeCells count="17">
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AI11:AX11"/>
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="S10:Y10"/>
+    <mergeCell ref="Z10:AF10"/>
     <mergeCell ref="L11:R11"/>
     <mergeCell ref="S11:Y11"/>
     <mergeCell ref="Z11:AF11"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="S12:Y12"/>
-    <mergeCell ref="Z12:AF12"/>
-    <mergeCell ref="AI11:AX11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI10:AX10"/>
+    <mergeCell ref="AG10:AH10"/>
     <mergeCell ref="AI9:AX9"/>
-    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="E10:K10"/>
     <mergeCell ref="L9:R9"/>
     <mergeCell ref="S9:Y9"/>
     <mergeCell ref="Z9:AF9"/>
-    <mergeCell ref="AI10:AX10"/>
-    <mergeCell ref="E11:K11"/>
-    <mergeCell ref="L10:R10"/>
-    <mergeCell ref="S10:Y10"/>
-    <mergeCell ref="Z10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG9:AH12" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG9:AH11" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>